--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,27 +436,21 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>0.7015182403732778</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>-0.7420476828353562</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -467,30 +461,21 @@
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>-0.2451976371230291</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>-0.5555135891318952</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>0.2972988696328782</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -501,30 +486,21 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>1.212115489820365</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>0.8442071301477228</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>1.013480763294794</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -535,30 +511,21 @@
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>0.3626630030113764</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>1.122475521884692</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>-0.4258007569310829</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.7218300370884001</v>
+        <v>-0.3496173419443749</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>-0.578174579726376</v>
+        <v>-0.6616365666142765</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>-0.7514559363454909</v>
+        <v>0.2197847717222867</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.07607154651957382</v>
+        <v>0.05500386022236903</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>-0.7492845378401558</v>
+        <v>0.2184978785563896</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>0.2199740425759433</v>
+        <v>0.04195831742983547</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-0.184453991189526</v>
+        <v>0.07916875696107883</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>0.2751437421933511</v>
+        <v>-0.01790997771649039</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>-0.08253785766044741</v>
+        <v>0.1671491311400208</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>0.3631938889236741</v>
+        <v>0.1656566557188155</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>0.07468705617190707</v>
+        <v>-0.08711135105702317</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>-0.05493014849097255</v>
+        <v>0.1158714888162216</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.1249812328300459</v>
+        <v>0.2044493994367125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>-0.05493014849097255</v>
+        <v>0.1761917659537371</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>0.1772374095820428</v>
+        <v>0.1078587431702305</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.2464114370821502</v>
+        <v>0.2685680645708288</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>0.2820931576894115</v>
+        <v>0.2803378563356329</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>0.4722128445998619</v>
+        <v>0.1089201880626334</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.3858180453838456</v>
+        <v>0.3524405906205841</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.207570107975763</v>
+        <v>0.1531204771924033</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.1945700812221007</v>
+        <v>0.1415392254179304</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>0.007490141202270983</v>
+        <v>-0.1904239862803969</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>0.2374675790670411</v>
+        <v>0.2977174885593792</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>0.2343541283920114</v>
+        <v>0.3424613118119479</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>0.33359684781058</v>
+        <v>0.1339497680586277</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.186480910314879</v>
+        <v>0.07560805834034845</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.007785039500074475</v>
+        <v>-0.01670081902098719</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.0007133001605263978</v>
+        <v>-0.05069288950212414</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.1199330684587996</v>
+        <v>-0.2043633904885378</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.1185160685694409</v>
+        <v>0.0103609600907939</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>-0.009430310228020211</v>
+        <v>0.01105513701109562</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>-0.09195392075255215</v>
+        <v>0.0925667197466451</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.7531433808722343</v>
+        <v>-0.5849047489490333</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.2237910902102569</v>
+        <v>-0.2059746096811033</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-2.594017828322792</v>
+        <v>-2.657403949513992</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.126320849439001</v>
+        <v>-1.40802832891157</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.07817184560396928</v>
+        <v>-1.407243743159736</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-2.657403949513992</v>
+        <v>-0.2500618974080826</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-1.0544282406034</v>
+        <v>0.07829984441984905</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.3190555674682627</v>
+        <v>-0.4334047671505248</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.507168233081734</v>
+        <v>-0.06335028919957075</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.5726882163857971</v>
+        <v>-0.3096364143617802</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.4385391043360887</v>
+        <v>0.2283024244226883</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.3880187947925107</v>
+        <v>0.2048390592685578</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-0.3096364143617802</v>
+        <v>-0.0355780787674953</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>0.5763850579771912</v>
+        <v>-0.1890623092888566</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.1019287759377319</v>
+        <v>-0.1663214453978101</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.479844425366438</v>
+        <v>-0.3613518455741316</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-0.09402823344024647</v>
+        <v>-0.1730430455425092</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.8200243578187161</v>
+        <v>-0.4115424244148125</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.1247342831339759</v>
+        <v>0.2152263639657814</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>-0.1730430455425092</v>
+        <v>0.6050248749486009</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>0.5522675992340798</v>
+        <v>-0.1865259660156937</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.7070687814112464</v>
+        <v>0.6502606143725664</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.06692696028677281</v>
+        <v>-0.1691853834640433</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.6846709791617167</v>
+        <v>0.6376744206510576</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.1200849649013458</v>
+        <v>-0.2058599286704377</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.006074511539599925</v>
+        <v>-0.06071040501895997</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>0.6376744206510576</v>
+        <v>-0.05036452040672046</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.2066385473532328</v>
+        <v>-0.2233431232791294</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.003513949268807437</v>
+        <v>0.1549171986535924</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.0971648574240036</v>
+        <v>-0.03486668218654065</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.2212143863870253</v>
+        <v>0.1856341247700399</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.3049434951572172</v>
+        <v>0.0444032571666142</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.0965383357124816</v>
+        <v>0.160714157635633</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>0.1856341247700399</v>
+        <v>0.01130372647704103</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.1605926478871034</v>
+        <v>-0.1505299872523014</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.01148140173768963</v>
+        <v>-0.06391119588061711</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.3077774797124899</v>
+        <v>-0.2122873162357264</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-0.09492420427399395</v>
+        <v>-0.09450306168263811</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.2765110737940724</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>-0.09450306168263811</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>-0.2733642003528658</v>
+        <v>-0.2824524929558314</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>2.070003986395053</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>0.517569958955022</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>-0.5555135891318952</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-3.956152295564896</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.8442071301477228</v>
+        <v>0.7825601129312298</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>-0.2328395085068102</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>1.234995474941392</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>0.7327527981400461</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.122475521884692</v>
+        <v>1.171373351779592</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>0.6458049593451864</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>0.899360810820804</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>0.4113848771853501</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.578174579726376</v>
+        <v>0.4797371259343874</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.3496173419443749</v>
+        <v>0.5448268972618964</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.9010266119894084</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>-0.6616365666142765</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.2197847717222867</v>
+        <v>1.203907967581297</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.7492845378401558</v>
+        <v>0.1088602047940146</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>0.05500386022236903</v>
+        <v>0.1671551101610103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.02019328874804938</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>0.2184978785563896</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>0.04195831742983547</v>
+        <v>-0.03860754389363175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>0.2751437421933511</v>
+        <v>-0.075394216261504</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.07916875696107883</v>
+        <v>-0.06463514052835739</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.1729981757035093</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>-0.01790997771649039</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>0.1671491311400208</v>
+        <v>0.2629870913912535</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>0.07468705617190707</v>
+        <v>-0.07548837955325682</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>0.1656566557188155</v>
+        <v>0.05928147027902675</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>0.09752710595589686</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>-0.08711135105702317</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>0.1158714888162216</v>
+        <v>0.1987429576382649</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.05493014849097255</v>
+        <v>-0.5735475396625112</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.2044493994367125</v>
+        <v>0.02406984837131088</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>-0.5280591151586633</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>0.1761917659537371</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>0.1078587431702305</v>
+        <v>0.1903092973221776</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>0.2820931576894115</v>
+        <v>0.02883110668334687</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.2685680645708288</v>
+        <v>0.241498802789164</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>0.07201851318385799</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>0.2803378563356329</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>0.1089201880626334</v>
+        <v>0.2843016498274009</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.3524405906205841</v>
+        <v>0.8258453722611359</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.1531204771924033</v>
+        <v>0.288064297781454</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.1415392254179304</v>
+        <v>0.7252300059688022</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-0.1904239862803969</v>
+        <v>0.2052430644269299</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>0.2343541283920114</v>
+        <v>0.4640111827386662</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>0.2977174885593792</v>
+        <v>-0.1620498231152179</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>0.3727661260635617</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>0.3424613118119479</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>0.1339497680586277</v>
+        <v>-0.8612142616933327</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.07560805834034845</v>
+        <v>-0.9065026814729205</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-0.01670081902098719</v>
+        <v>-0.1365403697986656</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.05069288950212414</v>
+        <v>-0.6243248145489155</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.2043633904885378</v>
+        <v>0.07475225043114264</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.009430310228020211</v>
+        <v>-0.7901161779547028</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.0103609600907939</v>
+        <v>-0.1949185821441768</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>-0.801759526476209</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.01105513701109562</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>0.0925667197466451</v>
+        <v>0.06491682578968483</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.5849047489490333</v>
+        <v>-0.2930109800340586</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.2059746096811033</v>
+        <v>-0.1644047560850792</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-2.657403949513992</v>
+        <v>-0.6491730431770759</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-1.40802832891157</v>
+        <v>-0.4370777949570193</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-2.657403949513992</v>
+        <v>-1.503583188367719</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.407243743159736</v>
+        <v>-0.5877299932847579</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-1.103489789942047</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-0.2500618974080826</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>0.07829984441984905</v>
+        <v>1.323658311025055</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.4334047671505248</v>
+        <v>2.632698787096288</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.06335028919957075</v>
+        <v>0.4893323826990148</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.3096364143617802</v>
+        <v>1.311904119834839</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.2283024244226883</v>
+        <v>-0.1159018519404809</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.3096364143617802</v>
+        <v>1.067534122491809</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.2048390592685578</v>
+        <v>-0.112565850764601</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.9704846793491928</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>-0.0355780787674953</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-0.1890623092888566</v>
+        <v>-0.6989646400249128</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.1663214453978101</v>
+        <v>-0.3568974718008655</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.3613518455741316</v>
+        <v>0.04689880979749095</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-0.1730430455425092</v>
+        <v>-1.338216592160768</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.4115424244148125</v>
+        <v>-0.2487719682984557</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-0.1730430455425092</v>
+        <v>-0.9795431199870586</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.2152263639657814</v>
+        <v>-0.3324688493351879</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>-0.7009264669202708</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>0.6050248749486009</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-0.1865259660156937</v>
+        <v>-0.0234350458557242</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.6502606143725664</v>
+        <v>-0.05370673382950608</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.1691853834640433</v>
+        <v>-0.03417477517112522</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.6376744206510576</v>
+        <v>0.2512652100014945</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.2058599286704377</v>
+        <v>0.041441321352087</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.6376744206510576</v>
+        <v>0.1829021030556488</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.06071040501895997</v>
+        <v>0.01245506629512505</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.3928252664241905</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.05036452040672046</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.2233431232791294</v>
+        <v>0.196134499498668</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.1549171986535924</v>
+        <v>0.2464401331885524</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.03486668218654065</v>
+        <v>-0.02784774425726999</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.1856341247700399</v>
+        <v>0.9693451788297391</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.0444032571666142</v>
+        <v>0.08029846083614789</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.1856341247700399</v>
+        <v>0.6979546684258597</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.160714157635633</v>
+        <v>-0.04101132194430646</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>0.3224026462283813</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.01130372647704103</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-0.1505299872523014</v>
+        <v>-0.6671574593505647</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.06391119588061711</v>
+        <v>-2.205730080079726</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.2122873162357264</v>
+        <v>-0.2015885781823656</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-0.09450306168263811</v>
+        <v>-1.551451534890558</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.2824524929558314</v>
+        <v>-0.1079783528070921</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-2.11737366557071</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>-0.2835476113072333</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-1.503583188367719</v>
+        <v>-2.057410563888307</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.5877299932847579</v>
+        <v>-2.423816817070157</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>1.323658311025055</v>
+        <v>0.1236480429917863</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.632698787096288</v>
+        <v>1.494156293753868</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.4893323826990148</v>
+        <v>-0.03701844118276787</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.311904119834839</v>
+        <v>1.65545307357684</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.1159018519404809</v>
+        <v>0.1245975200357741</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.067534122491809</v>
+        <v>1.056133903324663</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.112565850764601</v>
+        <v>-0.1670542209177062</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.6989646400249128</v>
+        <v>-0.411990061586387</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.3568974718008655</v>
+        <v>-0.1632466586723669</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.04689880979749095</v>
+        <v>0.0623674617171055</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.338216592160768</v>
+        <v>-1.105429175133765</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.2487719682984557</v>
+        <v>-0.1028550454766353</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-0.9795431199870586</v>
+        <v>-0.9016217080135669</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.3324688493351879</v>
+        <v>-0.1714519218005472</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-0.0234350458557242</v>
+        <v>-0.2625026931658447</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.05370673382950608</v>
+        <v>-0.2824436506008277</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.03417477517112522</v>
+        <v>-0.06249988768062265</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.2512652100014945</v>
+        <v>0.131237362188763</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.041441321352087</v>
+        <v>-0.03490505833951829</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.1829021030556488</v>
+        <v>0.1588345419565096</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.01245506629512505</v>
+        <v>-0.0219241564445749</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.196134499498668</v>
+        <v>0.2126946548430375</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.2464401331885524</v>
+        <v>0.2213518443051177</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.02784774425726999</v>
+        <v>0.005297975263385268</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.9693451788297391</v>
+        <v>0.7202664148089788</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.08029846083614789</v>
+        <v>0.01261954615912053</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.6979546684258597</v>
+        <v>0.6819412776044809</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.04101132194430646</v>
+        <v>-0.03086565764709448</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-0.6671574593505647</v>
+        <v>-0.4796777936135199</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-2.205730080079726</v>
+        <v>-1.718039735598909</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.2015885781823656</v>
+        <v>-0.09902892412290143</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.551451534890558</v>
+        <v>-1.4049744797338</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.1079783528070921</v>
+        <v>-0.06336997074021244</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-2.11737366557071</v>
+        <v>-2.11727792910924</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.2835476113072333</v>
+        <v>-0.3042153772887857</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>2.070003986395053</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>0.517569958955022</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -473,7 +467,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-3.956152295564896</v>
+        <v>-3.956152295564863</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -493,7 +487,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-0.2328395085068102</v>
+        <v>-0.2328395085068324</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -504,7 +498,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>1.234995474941392</v>
+        <v>1.234995474941436</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -538,7 +532,7 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>0.899360810820804</v>
+        <v>0.8993608108207818</v>
       </c>
       <c r="D10">
         <v>2012</v>
@@ -555,13 +549,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.4797371259343874</v>
+        <v>0.4797371259344096</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.5448268972618964</v>
+        <v>0.5448268972618742</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -589,7 +583,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.1088602047940146</v>
+        <v>0.1088602047939924</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -606,13 +600,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.02019328874804938</v>
+        <v>0.02019328874802717</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>-0.03860754389363175</v>
+        <v>-0.03860754389360954</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -623,13 +617,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>-0.075394216261504</v>
+        <v>-0.0753942162614929</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-0.06463514052835739</v>
+        <v>-0.06463514052834629</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -657,7 +651,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>-0.07548837955325682</v>
+        <v>-0.07548837955327903</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -680,7 +674,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>0.1987429576382649</v>
+        <v>0.1987429576382871</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,7 +691,7 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.02406984837131088</v>
+        <v>0.02406984837133308</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,7 +708,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>0.1903092973221776</v>
+        <v>0.1903092973221998</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -725,7 +719,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>0.02883110668334687</v>
+        <v>0.02883110668336908</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -742,7 +736,7 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>0.07201851318385799</v>
+        <v>0.0720185131838802</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -759,13 +753,13 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.8258453722611359</v>
+        <v>0.8258453722611137</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.288064297781454</v>
+        <v>0.2880642977814318</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,7 +776,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>0.2052430644269299</v>
+        <v>0.2052430644269743</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -816,7 +810,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>-0.8612142616933327</v>
+        <v>-0.8612142616933216</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,7 +827,7 @@
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-0.1365403697986656</v>
+        <v>-0.1365403697986323</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,7 +844,7 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.07475225043114264</v>
+        <v>0.07475225043116485</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -861,13 +855,13 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.7901161779547028</v>
+        <v>-0.7901161779547361</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.1949185821441768</v>
+        <v>-0.1949185821441657</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -878,13 +872,13 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>-0.801759526476209</v>
+        <v>-0.8017595264762423</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>0.06491682578968483</v>
+        <v>0.06491682578966262</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -895,13 +889,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.2930109800340586</v>
+        <v>-0.2930109800340697</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.1644047560850792</v>
+        <v>-0.1644047560851014</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -912,13 +906,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.6491730431770759</v>
+        <v>-0.6491730431770648</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.4370777949570193</v>
+        <v>-0.4370777949570304</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -929,13 +923,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-2.057410563888307</v>
+        <v>-2.057410563888296</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.423816817070157</v>
+        <v>-2.423816817070179</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -969,7 +963,7 @@
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.03701844118276787</v>
+        <v>-0.03701844118271236</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +974,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.65545307357684</v>
+        <v>1.655453073576818</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.1245975200357741</v>
+        <v>0.1245975200357519</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,7 +997,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.1670542209177062</v>
+        <v>-0.1670542209177395</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1014,13 +1008,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>0.9704846793491928</v>
+        <v>0.9704846793491706</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.411990061586387</v>
+        <v>-0.4119900615863981</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1025,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.1632466586723669</v>
+        <v>-0.1632466586723558</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.0623674617171055</v>
+        <v>0.06236746171708329</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,7 +1042,7 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.105429175133765</v>
+        <v>-1.105429175133776</v>
       </c>
       <c r="D40">
         <v>2023</v>
@@ -1065,13 +1059,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-0.9016217080135669</v>
+        <v>-0.901621708013578</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.1714519218005472</v>
+        <v>-0.1714519218005361</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1099,7 +1093,7 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.2824436506008277</v>
+        <v>-0.2824436506008499</v>
       </c>
       <c r="D43">
         <v>2024</v>
@@ -1116,13 +1110,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.131237362188763</v>
+        <v>0.1312373621887408</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.03490505833951829</v>
+        <v>-0.0349050583395405</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,7 +1133,7 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.0219241564445749</v>
+        <v>-0.02192415644459711</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1150,7 +1144,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>0.3928252664241905</v>
+        <v>0.3928252664241683</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1184,7 +1178,7 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.7202664148089788</v>
+        <v>0.7202664148089566</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -1201,13 +1195,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.6819412776044809</v>
+        <v>0.6819412776044587</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.03086565764709448</v>
+        <v>-0.03086565764708338</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1218,13 +1212,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>0.3224026462283813</v>
+        <v>0.3224026462283369</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-0.4796777936135199</v>
+        <v>-0.4796777936134977</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,7 +1229,7 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-1.718039735598909</v>
+        <v>-1.718039735598864</v>
       </c>
       <c r="D51">
         <v>2026</v>
@@ -1252,13 +1246,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.4049744797338</v>
+        <v>-1.404974479733823</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.06336997074021244</v>
+        <v>-0.06336997074016804</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,7 +1269,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.3042153772887857</v>
+        <v>-0.3042153772887746</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>-0.3042153772887746</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-2.06674933094535</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-0.3099928749133896</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
